--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value178.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value178.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23067345235131</v>
+        <v>1.138755083084106</v>
       </c>
       <c r="B1">
-        <v>1.424045326590699</v>
+        <v>3.218261241912842</v>
       </c>
       <c r="C1">
-        <v>1.795130481242037</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.338467505151442</v>
+        <v>3.558988571166992</v>
       </c>
       <c r="E1">
-        <v>1.492322553826815</v>
+        <v>2.09212589263916</v>
       </c>
     </row>
   </sheetData>
